--- a/微免牌列表 - reduced.xlsx
+++ b/微免牌列表 - reduced.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\光穎資料夾\光穎資料夾\3.Powerpoint\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruce Chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FD333-78A5-4B34-997B-EB4C7C0618C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="15072" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Organ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,13 +817,17 @@
   </si>
   <si>
     <t>Gas gangrene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerumen </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -959,6 +964,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -994,6 +1016,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1169,17 +1208,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1246,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>178</v>
       </c>
@@ -1259,7 +1298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>179</v>
       </c>
@@ -1267,7 +1306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1325,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>161</v>
       </c>
@@ -1302,7 +1341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>46</v>
       </c>
@@ -1318,7 +1357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +1387,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -1381,7 +1420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>97</v>
       </c>
@@ -1389,7 +1428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>49</v>
       </c>
@@ -1400,7 +1439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>50</v>
       </c>
@@ -1411,7 +1450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +1461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1469,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1477,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -1454,17 +1493,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1475,7 +1514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1486,7 +1525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1497,7 +1536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1511,7 +1550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1525,7 +1564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -1533,15 +1572,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>72</v>
       </c>
       <c r="E37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>73</v>
       </c>
@@ -1549,7 +1591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>74</v>
       </c>
@@ -1557,7 +1599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>75</v>
       </c>
@@ -1565,7 +1607,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -1573,7 +1615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>77</v>
       </c>
@@ -1581,7 +1623,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>163</v>
       </c>
@@ -1589,7 +1631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>164</v>
       </c>
@@ -1597,7 +1639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>81</v>
       </c>
@@ -1605,7 +1647,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>96</v>
       </c>
@@ -1613,7 +1655,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>82</v>
       </c>
@@ -1621,7 +1663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>83</v>
       </c>
@@ -1629,7 +1671,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>90</v>
       </c>
@@ -1637,7 +1679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>92</v>
       </c>
@@ -1645,7 +1687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>94</v>
       </c>
@@ -1653,32 +1695,32 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -1692,7 +1734,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1706,7 +1748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -1717,7 +1759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>128</v>
       </c>
@@ -1725,7 +1767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>104</v>
       </c>
@@ -1736,7 +1778,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>106</v>
       </c>
@@ -1747,7 +1789,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>108</v>
       </c>
@@ -1755,7 +1797,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>110</v>
       </c>
@@ -1763,7 +1805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>119</v>
       </c>
@@ -1771,7 +1813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>121</v>
       </c>
@@ -1779,7 +1821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>123</v>
       </c>
@@ -1787,7 +1829,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>124</v>
       </c>
@@ -1795,7 +1837,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>127</v>
       </c>
@@ -1803,7 +1845,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -1811,7 +1853,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -1822,7 +1864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -1833,7 +1875,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -1844,7 +1886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -1855,7 +1897,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>146</v>
       </c>
@@ -1866,7 +1908,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -1874,7 +1916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>149</v>
       </c>
@@ -1882,7 +1924,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>160</v>
       </c>
@@ -1890,72 +1932,72 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>173</v>
       </c>
@@ -1967,12 +2009,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,12 +2022,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/微免牌列表 - reduced.xlsx
+++ b/微免牌列表 - reduced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruce Chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92FD333-78A5-4B34-997B-EB4C7C0618C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D169E2C-AE4C-47FB-922D-75FF1970FDE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rickettsia powezekii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Murine typhus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,6 +817,10 @@
   </si>
   <si>
     <t xml:space="preserve">Cerumen </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rickettsia prowazekii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,8 +1212,8 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1240,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
         <v>58</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1362,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1381,10 +1381,10 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -1455,10 +1455,10 @@
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G34" t="s">
         <v>87</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -1580,7 +1580,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,12 +1620,12 @@
         <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
         <v>79</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -1644,7 +1644,7 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,12 +1692,12 @@
         <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G59" t="s">
         <v>112</v>
@@ -1753,7 +1753,7 @@
         <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G60" t="s">
         <v>113</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G61" t="s">
         <v>114</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="E67" t="s">
         <v>120</v>
@@ -1823,183 +1823,183 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
         <v>124</v>
-      </c>
-      <c r="E69" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" t="s">
         <v>131</v>
-      </c>
-      <c r="E74" t="s">
-        <v>175</v>
-      </c>
-      <c r="G74" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
         <v>133</v>
-      </c>
-      <c r="E75" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" t="s">
         <v>135</v>
-      </c>
-      <c r="E76" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="s">
         <v>137</v>
-      </c>
-      <c r="E77" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/微免牌列表 - reduced.xlsx
+++ b/微免牌列表 - reduced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruce Chen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D169E2C-AE4C-47FB-922D-75FF1970FDE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{668C8328-E5FE-4535-9CD3-D30001CACC42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Epidemic typhus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Murine typhus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,6 +817,10 @@
   </si>
   <si>
     <t>Rickettsia prowazekii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epidemic typhus / Endemic typhus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,7 +1213,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1240,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
         <v>58</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1362,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1381,10 +1381,10 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -1455,10 +1455,10 @@
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
         <v>87</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -1580,7 +1580,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,12 +1620,12 @@
         <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>79</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -1644,7 +1644,7 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,12 +1692,12 @@
         <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G59" t="s">
         <v>112</v>
@@ -1753,7 +1753,7 @@
         <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G60" t="s">
         <v>113</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
         <v>114</v>
@@ -1815,191 +1815,191 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" t="s">
         <v>199</v>
-      </c>
-      <c r="E67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" t="s">
         <v>123</v>
-      </c>
-      <c r="E69" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" t="s">
         <v>130</v>
-      </c>
-      <c r="E74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
         <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
         <v>134</v>
-      </c>
-      <c r="E76" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
         <v>136</v>
-      </c>
-      <c r="E77" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
